--- a/document/函数与类定义.xlsx
+++ b/document/函数与类定义.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,10 @@
     <t>array:
 state=&gt;1成功/2账户不存在/3密码错误
 teacher_name=&gt;（只有在state为1时存在）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +357,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -395,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +646,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,6 +710,9 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
